--- a/results/CNN Models/full_dataset/Our_CNN_Model/result_for_Our_CNN_Model.xlsx
+++ b/results/CNN Models/full_dataset/Our_CNN_Model/result_for_Our_CNN_Model.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.996031746031746</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9920948616600791</v>
+        <v>0.9644268774703557</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9940594059405941</v>
+        <v>0.9295238095238095</v>
       </c>
       <c r="E2" t="n">
         <v>253</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9375</v>
+        <v>0.9509803921568627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.64453125</v>
+        <v>0.568359375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.7114914425427873</v>
       </c>
       <c r="E3" t="n">
         <v>512</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.896551724137931</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9454545454545454</v>
+        <v>0.78</v>
       </c>
       <c r="E4" t="n">
         <v>78</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8614609571788413</v>
+        <v>0.8988173455978975</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.925575101488498</v>
+        <v>0.9467128027681661</v>
       </c>
       <c r="E5" t="n">
         <v>684</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8938547486033519</v>
+        <v>0.9204771371769384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9775967413441955</v>
+        <v>0.9429735234215886</v>
       </c>
       <c r="D7" t="n">
-        <v>0.933852140077821</v>
+        <v>0.93158953722334</v>
       </c>
       <c r="E7" t="n">
         <v>491</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="E8" t="n">
         <v>96</v>
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6</v>
+        <v>0.7966101694915254</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8936170212765957</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.717948717948718</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="E9" t="n">
         <v>47</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5984848484848485</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7488151658767772</v>
+        <v>0.9186046511627907</v>
       </c>
       <c r="E10" t="n">
         <v>79</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9577464788732394</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8047337278106509</v>
+        <v>0.8757396449704142</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8745980707395499</v>
+        <v>0.8822652757078987</v>
       </c>
       <c r="E11" t="n">
         <v>338</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.888421857088269</v>
+        <v>0.8777225831104318</v>
       </c>
       <c r="C12" t="n">
-        <v>0.888421857088269</v>
+        <v>0.8777225831104318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.888421857088269</v>
+        <v>0.8777225831104318</v>
       </c>
       <c r="E12" t="n">
-        <v>0.888421857088269</v>
+        <v>0.8777225831104318</v>
       </c>
     </row>
     <row r="13">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8741630503309958</v>
+        <v>0.8086698673265553</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8645906935424854</v>
+        <v>0.8838678908041846</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8404192036415393</v>
+        <v>0.8323447208226218</v>
       </c>
       <c r="E13" t="n">
         <v>2617</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9034190505895383</v>
+        <v>0.893884112784512</v>
       </c>
       <c r="C14" t="n">
-        <v>0.888421857088269</v>
+        <v>0.8777225831104318</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8834476504828819</v>
+        <v>0.8735021541157679</v>
       </c>
       <c r="E14" t="n">
         <v>2617</v>
